--- a/pay slip.xlsx
+++ b/pay slip.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\P_WebDFin-Dept\Finance_Dept-NITAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EE7D32-D7F8-4374-B066-2BB5A766F07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CDB7CB-226B-439F-A721-4F97271CAB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -347,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -380,26 +380,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
@@ -408,7 +398,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -429,12 +419,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -447,19 +432,28 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -484,15 +478,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -508,10 +493,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1251,376 +1233,376 @@
   <dimension ref="B1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:H22"/>
+      <selection activeCell="C2" sqref="C2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-    </row>
-    <row r="2" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="32"/>
-      <c r="C2" s="59" t="s">
+    <row r="1" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+    </row>
+    <row r="2" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="26"/>
+      <c r="C2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-    </row>
-    <row r="3" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32"/>
-      <c r="C3" s="59" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+    </row>
+    <row r="3" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="26"/>
+      <c r="C3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-    </row>
-    <row r="4" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="60" t="s">
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+    </row>
+    <row r="4" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="26"/>
+      <c r="C4" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-    </row>
-    <row r="5" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="60" t="s">
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+    </row>
+    <row r="5" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="31"/>
-    </row>
-    <row r="6" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="62" t="s">
+      <c r="E5" s="54"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="35" t="s">
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="29" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="56" t="s">
+    <row r="7" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="56" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="58"/>
-    </row>
-    <row r="8" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="50">
+      <c r="G7" s="51"/>
+      <c r="H7" s="52"/>
+    </row>
+    <row r="8" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="41">
         <v>1</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="50">
+      <c r="D8" s="44"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="41">
         <v>1</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="37"/>
-    </row>
-    <row r="9" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="50">
+      <c r="H8" s="31"/>
+    </row>
+    <row r="9" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="41">
         <v>2</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="50">
+      <c r="D9" s="44"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="41">
         <v>2</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="37"/>
-    </row>
-    <row r="10" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="50">
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="41">
         <v>3</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="50">
+      <c r="D10" s="44"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="41">
         <v>3</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="37"/>
-    </row>
-    <row r="11" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="50">
+      <c r="H10" s="31"/>
+    </row>
+    <row r="11" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="41">
         <v>4</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="50">
+      <c r="D11" s="49"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="41">
         <v>4</v>
       </c>
-      <c r="G11" s="47" t="s">
+      <c r="G11" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="37"/>
-    </row>
-    <row r="12" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="50">
+      <c r="H11" s="31"/>
+    </row>
+    <row r="12" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="41">
         <v>5</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="50">
+      <c r="D12" s="44"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="41">
         <v>5</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="37"/>
-    </row>
-    <row r="13" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="50">
+      <c r="H12" s="31"/>
+    </row>
+    <row r="13" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="41">
         <v>6</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="50">
+      <c r="D13" s="44"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="41">
         <v>6</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="37"/>
-    </row>
-    <row r="14" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="50">
+      <c r="H13" s="31"/>
+    </row>
+    <row r="14" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="41">
         <v>7</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="50">
+      <c r="D14" s="49"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="41">
         <v>7</v>
       </c>
-      <c r="G14" s="47" t="s">
+      <c r="G14" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="37"/>
-    </row>
-    <row r="15" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="50">
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="41">
         <v>8</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="50">
+      <c r="D15" s="44"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="41">
         <v>8</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="37"/>
-    </row>
-    <row r="16" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="50">
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="41">
         <v>9</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="50">
+      <c r="D16" s="44"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="41">
         <v>9</v>
       </c>
-      <c r="G16" s="47" t="s">
+      <c r="G16" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="37"/>
-    </row>
-    <row r="17" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="50">
+      <c r="H16" s="31"/>
+    </row>
+    <row r="17" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="41">
         <v>10</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="50">
+      <c r="D17" s="44"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="41">
         <v>10</v>
       </c>
-      <c r="G17" s="47" t="s">
+      <c r="G17" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="37"/>
-    </row>
-    <row r="18" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="50">
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="41">
         <v>11</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="50">
+      <c r="D18" s="44"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="41">
         <v>11</v>
       </c>
-      <c r="G18" s="47" t="s">
+      <c r="G18" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="37"/>
-    </row>
-    <row r="19" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="49"/>
-      <c r="C19" s="65" t="s">
+      <c r="H18" s="31"/>
+    </row>
+    <row r="19" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="40"/>
+      <c r="C19" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="48" t="s">
+      <c r="D19" s="46"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="37"/>
-    </row>
-    <row r="20" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="46"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="46"/>
-    </row>
-    <row r="21" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="46"/>
-      <c r="D21" s="51"/>
-      <c r="G21" s="51" t="s">
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="27"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="27"/>
+    </row>
+    <row r="21" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="27"/>
+      <c r="D21" s="42"/>
+      <c r="G21" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="51"/>
-    </row>
-    <row r="22" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-    </row>
-    <row r="23" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-    </row>
-    <row r="24" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="39" t="s">
+      <c r="H21" s="42"/>
+    </row>
+    <row r="22" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+    </row>
+    <row r="23" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="40"/>
-    </row>
-    <row r="25" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="32"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="39" t="s">
+      <c r="H24" s="34"/>
+    </row>
+    <row r="25" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="26"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="H25" s="39"/>
-    </row>
-    <row r="26" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="32"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="39" t="s">
+      <c r="H25" s="33"/>
+    </row>
+    <row r="26" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="26"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="39"/>
-    </row>
-    <row r="27" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="33"/>
+    </row>
+    <row r="27" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1628,14 +1610,27 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H34" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="B27:H27"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C15:D15"/>
@@ -1645,19 +1640,6 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="B22:H22"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="86" orientation="portrait" r:id="rId1"/>
@@ -1673,64 +1655,64 @@
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="70"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="59"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1738,7 +1720,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1746,7 +1728,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1754,7 +1736,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
@@ -1762,7 +1744,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1770,14 +1752,14 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1785,7 +1767,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
@@ -1793,7 +1775,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1801,7 +1783,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
@@ -1809,7 +1791,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
@@ -1817,7 +1799,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
@@ -1825,14 +1807,14 @@
       <c r="E19" s="12"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="10"/>
       <c r="C20" s="13"/>
       <c r="D20" s="7"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="12"/>
       <c r="C21" s="11"/>
@@ -1840,54 +1822,54 @@
       <c r="E21" s="10"/>
       <c r="F21" s="14"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="68"/>
-      <c r="B29" s="69"/>
-      <c r="C29" s="70"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="59"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -1895,7 +1877,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1903,7 +1885,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1911,7 +1893,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
@@ -1919,7 +1901,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1927,14 +1909,14 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="D35" s="7"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -1942,7 +1924,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
@@ -1950,7 +1932,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -1958,7 +1940,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
@@ -1966,7 +1948,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
       <c r="C40" s="9"/>
@@ -1974,7 +1956,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="10"/>
       <c r="C41" s="11"/>
@@ -1982,14 +1964,14 @@
       <c r="E41" s="12"/>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="10"/>
       <c r="C42" s="13"/>
       <c r="D42" s="7"/>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="12"/>
       <c r="C43" s="11"/>
@@ -1997,17 +1979,17 @@
       <c r="E43" s="10"/>
       <c r="F43" s="14"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E46" s="15"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E47" s="15"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F49" s="15"/>
     </row>
   </sheetData>
@@ -2037,69 +2019,69 @@
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="68"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -2107,7 +2089,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -2115,7 +2097,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -2123,7 +2105,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
@@ -2131,7 +2113,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -2139,14 +2121,14 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -2154,7 +2136,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
@@ -2162,7 +2144,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -2170,7 +2152,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
@@ -2178,7 +2160,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
@@ -2186,7 +2168,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="7"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
@@ -2194,14 +2176,14 @@
       <c r="F19" s="12"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="C20" s="10"/>
       <c r="D20" s="13"/>
       <c r="E20" s="7"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="8"/>
       <c r="C21" s="12"/>
       <c r="D21" s="11"/>
@@ -2209,54 +2191,54 @@
       <c r="F21" s="10"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
       <c r="F28" s="3"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="68"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="70"/>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="61"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -2264,7 +2246,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -2272,7 +2254,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -2280,7 +2262,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
@@ -2288,7 +2270,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -2296,14 +2278,14 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
       <c r="E35" s="7"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -2311,7 +2293,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
@@ -2319,7 +2301,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="7"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -2327,7 +2309,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
@@ -2335,7 +2317,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
@@ -2343,7 +2325,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="7"/>
       <c r="C41" s="10"/>
       <c r="D41" s="11"/>
@@ -2351,14 +2333,14 @@
       <c r="F41" s="12"/>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="8"/>
       <c r="C42" s="10"/>
       <c r="D42" s="13"/>
       <c r="E42" s="7"/>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="8"/>
       <c r="C43" s="12"/>
       <c r="D43" s="11"/>
@@ -2366,15 +2348,15 @@
       <c r="F43" s="10"/>
       <c r="G43" s="14"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F49" s="15" t="s">
         <v>27</v>
       </c>
@@ -2406,59 +2388,59 @@
       <selection activeCell="I2" sqref="A2:I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="70"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -2466,7 +2448,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -2474,7 +2456,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -2482,7 +2464,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
@@ -2490,7 +2472,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -2498,14 +2480,14 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2513,7 +2495,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
@@ -2521,7 +2503,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2529,7 +2511,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
@@ -2537,7 +2519,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
@@ -2545,7 +2527,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
@@ -2553,14 +2535,14 @@
       <c r="E17" s="12"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="10"/>
       <c r="C18" s="13"/>
       <c r="D18" s="7"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="12"/>
       <c r="C19" s="11"/>
@@ -2568,60 +2550,60 @@
       <c r="E19" s="10"/>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="V20" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
       <c r="V21" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
       <c r="I22" s="16"/>
       <c r="V22" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
       <c r="E24" s="3"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="68"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="70"/>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" s="59"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
-      <c r="J25" s="30"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J25" s="24"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -2629,7 +2611,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -2637,7 +2619,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -2645,7 +2627,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
@@ -2653,7 +2635,7 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -2661,14 +2643,14 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="D31" s="7"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -2676,7 +2658,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
@@ -2684,7 +2666,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -2692,7 +2674,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
@@ -2700,7 +2682,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
@@ -2708,7 +2690,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
@@ -2716,14 +2698,14 @@
       <c r="E37" s="12"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="10"/>
       <c r="C38" s="13"/>
       <c r="D38" s="7"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="12"/>
       <c r="C39" s="11"/>
@@ -2731,166 +2713,156 @@
       <c r="E39" s="10"/>
       <c r="F39" s="14"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="71"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="29"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="73"/>
-      <c r="B45" s="73"/>
-      <c r="C45" s="73"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="23"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="63"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="63"/>
       <c r="D45" s="18"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="20"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="22"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="22"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="21"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="21"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="21"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="21"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="21"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="21"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="22"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="22"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="27"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="19"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="1"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="1"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A5:C5"/>
     <mergeCell ref="B43:F43"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="A45:C45"/>
@@ -2900,6 +2872,12 @@
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="B41:F41"/>
     <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2915,64 +2893,64 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="70"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="59"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -2980,7 +2958,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -2988,7 +2966,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2996,7 +2974,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
@@ -3004,7 +2982,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -3012,14 +2990,14 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -3027,7 +3005,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
@@ -3035,7 +3013,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -3043,7 +3021,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
@@ -3051,7 +3029,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
@@ -3059,7 +3037,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
@@ -3067,14 +3045,14 @@
       <c r="E21" s="12"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="10"/>
       <c r="C22" s="13"/>
       <c r="D22" s="7"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="12"/>
       <c r="C23" s="11"/>
@@ -3082,18 +3060,18 @@
       <c r="E23" s="10"/>
       <c r="F23" s="14"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I26" s="16"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E30" s="15"/>
     </row>
   </sheetData>
